--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.04659881979862</v>
+        <v>7.737866</v>
       </c>
       <c r="H2">
-        <v>5.04659881979862</v>
+        <v>23.213598</v>
       </c>
       <c r="I2">
-        <v>0.00359182203285582</v>
+        <v>0.005143665428903488</v>
       </c>
       <c r="J2">
-        <v>0.00359182203285582</v>
+        <v>0.005214527395311928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>4.531549090154702</v>
+        <v>9.370999363650668</v>
       </c>
       <c r="R2">
-        <v>4.531549090154702</v>
+        <v>84.338994272856</v>
       </c>
       <c r="S2">
-        <v>4.242315205012477E-05</v>
+        <v>7.584923961245986E-05</v>
       </c>
       <c r="T2">
-        <v>4.242315205012477E-05</v>
+        <v>8.334455030093403E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.04659881979862</v>
+        <v>7.737866</v>
       </c>
       <c r="H3">
-        <v>5.04659881979862</v>
+        <v>23.213598</v>
       </c>
       <c r="I3">
-        <v>0.00359182203285582</v>
+        <v>0.005143665428903488</v>
       </c>
       <c r="J3">
-        <v>0.00359182203285582</v>
+        <v>0.005214527395311928</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>286.5818258652763</v>
+        <v>472.4753308599826</v>
       </c>
       <c r="R3">
-        <v>286.5818258652763</v>
+        <v>4252.277977739844</v>
       </c>
       <c r="S3">
-        <v>0.002682902497933647</v>
+        <v>0.003824234021441025</v>
       </c>
       <c r="T3">
-        <v>0.002682902497933647</v>
+        <v>0.004202139222371014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.04659881979862</v>
+        <v>7.737866</v>
       </c>
       <c r="H4">
-        <v>5.04659881979862</v>
+        <v>23.213598</v>
       </c>
       <c r="I4">
-        <v>0.00359182203285582</v>
+        <v>0.005143665428903488</v>
       </c>
       <c r="J4">
-        <v>0.00359182203285582</v>
+        <v>0.005214527395311928</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>2.128413718659553</v>
+        <v>1.023549438748</v>
       </c>
       <c r="R4">
-        <v>2.128413718659553</v>
+        <v>9.211944948732</v>
       </c>
       <c r="S4">
-        <v>1.992564066191837E-05</v>
+        <v>8.284649653903228E-06</v>
       </c>
       <c r="T4">
-        <v>1.992564066191837E-05</v>
+        <v>9.103326590131394E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.04659881979862</v>
+        <v>7.737866</v>
       </c>
       <c r="H5">
-        <v>5.04659881979862</v>
+        <v>23.213598</v>
       </c>
       <c r="I5">
-        <v>0.00359182203285582</v>
+        <v>0.005143665428903488</v>
       </c>
       <c r="J5">
-        <v>0.00359182203285582</v>
+        <v>0.005214527395311928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>90.42885055031225</v>
+        <v>5.069246249652</v>
       </c>
       <c r="R5">
-        <v>90.42885055031225</v>
+        <v>45.623216246868</v>
       </c>
       <c r="S5">
-        <v>0.00084657074221013</v>
+        <v>4.103067970913069E-05</v>
       </c>
       <c r="T5">
-        <v>0.00084657074221013</v>
+        <v>4.508527134051059E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1341.52906025075</v>
+        <v>7.737866</v>
       </c>
       <c r="H6">
-        <v>1341.52906025075</v>
+        <v>23.213598</v>
       </c>
       <c r="I6">
-        <v>0.9548081407662372</v>
+        <v>0.005143665428903488</v>
       </c>
       <c r="J6">
-        <v>0.9548081407662372</v>
+        <v>0.005214527395311928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>1204.6142381173</v>
+        <v>147.548925218916</v>
       </c>
       <c r="R6">
-        <v>1204.6142381173</v>
+        <v>885.293551313496</v>
       </c>
       <c r="S6">
-        <v>0.01127727670355013</v>
+        <v>0.001194266838486969</v>
       </c>
       <c r="T6">
-        <v>0.01127727670355013</v>
+        <v>0.0008748550247093384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1341.52906025075</v>
+        <v>1431.923421333333</v>
       </c>
       <c r="H7">
-        <v>1341.52906025075</v>
+        <v>4295.770264</v>
       </c>
       <c r="I7">
-        <v>0.9548081407662372</v>
+        <v>0.9518561059534332</v>
       </c>
       <c r="J7">
-        <v>0.9548081407662372</v>
+        <v>0.964969399642156</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>76181.57520857378</v>
+        <v>1734.14136017749</v>
       </c>
       <c r="R7">
-        <v>76181.57520857378</v>
+        <v>15607.27224159741</v>
       </c>
       <c r="S7">
-        <v>0.7131915563957861</v>
+        <v>0.01403620878048357</v>
       </c>
       <c r="T7">
-        <v>0.7131915563957861</v>
+        <v>0.01542324635970713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1341.52906025075</v>
+        <v>1431.923421333333</v>
       </c>
       <c r="H8">
-        <v>1341.52906025075</v>
+        <v>4295.770264</v>
       </c>
       <c r="I8">
-        <v>0.9548081407662372</v>
+        <v>0.9518561059534332</v>
       </c>
       <c r="J8">
-        <v>0.9548081407662372</v>
+        <v>0.964969399642156</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>565.7927165948361</v>
+        <v>87433.47225974512</v>
       </c>
       <c r="R8">
-        <v>565.7927165948361</v>
+        <v>786901.2503377062</v>
       </c>
       <c r="S8">
-        <v>0.005296800270155841</v>
+        <v>0.7076899837708696</v>
       </c>
       <c r="T8">
-        <v>0.005296800270155841</v>
+        <v>0.7776228707264372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1341.52906025075</v>
+        <v>1431.923421333333</v>
       </c>
       <c r="H9">
-        <v>1341.52906025075</v>
+        <v>4295.770264</v>
       </c>
       <c r="I9">
-        <v>0.9548081407662372</v>
+        <v>0.9518561059534332</v>
       </c>
       <c r="J9">
-        <v>0.9548081407662372</v>
+        <v>0.964969399642156</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>24038.5525440195</v>
+        <v>189.4119663271306</v>
       </c>
       <c r="R9">
-        <v>24038.5525440195</v>
+        <v>1704.707696944176</v>
       </c>
       <c r="S9">
-        <v>0.225042507396745</v>
+        <v>0.001533107949525763</v>
       </c>
       <c r="T9">
-        <v>0.225042507396745</v>
+        <v>0.001684607430066074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.410804851581461</v>
+        <v>1431.923421333333</v>
       </c>
       <c r="H10">
-        <v>0.410804851581461</v>
+        <v>4295.770264</v>
       </c>
       <c r="I10">
-        <v>0.0002923826461746045</v>
+        <v>0.9518561059534332</v>
       </c>
       <c r="J10">
-        <v>0.0002923826461746045</v>
+        <v>0.964969399642156</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>0.36887860871996</v>
+        <v>938.0845356307359</v>
       </c>
       <c r="R10">
-        <v>0.36887860871996</v>
+        <v>8442.760820676624</v>
       </c>
       <c r="S10">
-        <v>3.453342994730992E-06</v>
+        <v>0.007592893346657926</v>
       </c>
       <c r="T10">
-        <v>3.453342994730992E-06</v>
+        <v>0.008343211938491258</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.410804851581461</v>
+        <v>1431.923421333333</v>
       </c>
       <c r="H11">
-        <v>0.410804851581461</v>
+        <v>4295.770264</v>
       </c>
       <c r="I11">
-        <v>0.0002923826461746045</v>
+        <v>0.9518561059534332</v>
       </c>
       <c r="J11">
-        <v>0.0002923826461746045</v>
+        <v>0.964969399642156</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>23.32842546918101</v>
+        <v>27304.52579736148</v>
       </c>
       <c r="R11">
-        <v>23.32842546918101</v>
+        <v>163827.1547841689</v>
       </c>
       <c r="S11">
-        <v>0.0002183944874213606</v>
+        <v>0.2210039121058963</v>
       </c>
       <c r="T11">
-        <v>0.0002183944874213606</v>
+        <v>0.1618954631874542</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.410804851581461</v>
+        <v>2.264599666666667</v>
       </c>
       <c r="H12">
-        <v>0.410804851581461</v>
+        <v>6.793799</v>
       </c>
       <c r="I12">
-        <v>0.0002923826461746045</v>
+        <v>0.001505368924163289</v>
       </c>
       <c r="J12">
-        <v>0.0002923826461746045</v>
+        <v>0.001526107715130708</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>0.1732578144249584</v>
+        <v>2.742560033380889</v>
       </c>
       <c r="R12">
-        <v>0.1732578144249584</v>
+        <v>24.683040300428</v>
       </c>
       <c r="S12">
-        <v>1.621993375552594E-06</v>
+        <v>2.21983894194209E-05</v>
       </c>
       <c r="T12">
-        <v>1.621993375552594E-06</v>
+        <v>2.439200172631297E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.410804851581461</v>
+        <v>2.264599666666667</v>
       </c>
       <c r="H13">
-        <v>0.410804851581461</v>
+        <v>6.793799</v>
       </c>
       <c r="I13">
-        <v>0.0002923826461746045</v>
+        <v>0.001505368924163289</v>
       </c>
       <c r="J13">
-        <v>0.0002923826461746045</v>
+        <v>0.001526107715130708</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.918771390257</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N13">
-        <v>17.918771390257</v>
+        <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.2356939554538648</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P13">
-        <v>0.2356939554538648</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q13">
-        <v>7.361118221496657</v>
+        <v>138.2768164728802</v>
       </c>
       <c r="R13">
-        <v>7.361118221496657</v>
+        <v>1244.491348255922</v>
       </c>
       <c r="S13">
-        <v>6.891282238296038E-05</v>
+        <v>0.001119218023446086</v>
       </c>
       <c r="T13">
-        <v>6.891282238296038E-05</v>
+        <v>0.001229817508117655</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>58.0382766233033</v>
+        <v>2.264599666666667</v>
       </c>
       <c r="H14">
-        <v>58.0382766233033</v>
+        <v>6.793799</v>
       </c>
       <c r="I14">
-        <v>0.04130765455473241</v>
+        <v>0.001505368924163289</v>
       </c>
       <c r="J14">
-        <v>0.04130765455473241</v>
+        <v>0.001526107715130708</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.897941217831048</v>
+        <v>0.132278</v>
       </c>
       <c r="N14">
-        <v>0.897941217831048</v>
+        <v>0.396834</v>
       </c>
       <c r="O14">
-        <v>0.01181103953983894</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P14">
-        <v>0.01181103953983894</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q14">
-        <v>52.11496079194421</v>
+        <v>0.2995567147073334</v>
       </c>
       <c r="R14">
-        <v>52.11496079194421</v>
+        <v>2.696010432366</v>
       </c>
       <c r="S14">
-        <v>0.0004878863412439525</v>
+        <v>2.424623900786E-06</v>
       </c>
       <c r="T14">
-        <v>0.0004878863412439525</v>
+        <v>2.664221680960792E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>58.0382766233033</v>
+        <v>2.264599666666667</v>
       </c>
       <c r="H15">
-        <v>58.0382766233033</v>
+        <v>6.793799</v>
       </c>
       <c r="I15">
-        <v>0.04130765455473241</v>
+        <v>0.001505368924163289</v>
       </c>
       <c r="J15">
-        <v>0.04130765455473241</v>
+        <v>0.001526107715130708</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.7871225945224</v>
+        <v>0.655122</v>
       </c>
       <c r="N15">
-        <v>56.7871225945224</v>
+        <v>1.965366</v>
       </c>
       <c r="O15">
-        <v>0.7469475027972082</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P15">
-        <v>0.7469475027972082</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q15">
-        <v>3295.826729782328</v>
+        <v>1.483589062826</v>
       </c>
       <c r="R15">
-        <v>3295.826729782328</v>
+        <v>13.352301565434</v>
       </c>
       <c r="S15">
-        <v>0.0308546494160671</v>
+        <v>1.200822857263283E-05</v>
       </c>
       <c r="T15">
-        <v>0.0308546494160671</v>
+        <v>1.319486412006831E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>58.0382766233033</v>
+        <v>2.264599666666667</v>
       </c>
       <c r="H16">
-        <v>58.0382766233033</v>
+        <v>6.793799</v>
       </c>
       <c r="I16">
-        <v>0.04130765455473241</v>
+        <v>0.001505368924163289</v>
       </c>
       <c r="J16">
-        <v>0.04130765455473241</v>
+        <v>0.001526107715130708</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.421752113583795</v>
+        <v>19.068426</v>
       </c>
       <c r="N16">
-        <v>0.421752113583795</v>
+        <v>38.136852</v>
       </c>
       <c r="O16">
-        <v>0.005547502209087931</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P16">
-        <v>0.005547502209087931</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q16">
-        <v>24.47776583463913</v>
+        <v>43.182351163458</v>
       </c>
       <c r="R16">
-        <v>24.47776583463913</v>
+        <v>259.094106980748</v>
       </c>
       <c r="S16">
-        <v>0.0002291543048946192</v>
+        <v>0.0003495196588243637</v>
       </c>
       <c r="T16">
-        <v>0.0002291543048946192</v>
+        <v>0.0002560391194857117</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.093437</v>
+      </c>
+      <c r="H17">
+        <v>3.280311</v>
+      </c>
+      <c r="I17">
+        <v>0.000726850800412406</v>
+      </c>
+      <c r="J17">
+        <v>0.0007368642971521721</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.633172</v>
+      </c>
+      <c r="O17">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P17">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q17">
+        <v>1.324214897388</v>
+      </c>
+      <c r="R17">
+        <v>11.917934076492</v>
+      </c>
+      <c r="S17">
+        <v>1.071824777194762E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.177740930734681E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.093437</v>
+      </c>
+      <c r="H18">
+        <v>3.280311</v>
+      </c>
+      <c r="I18">
+        <v>0.000726850800412406</v>
+      </c>
+      <c r="J18">
+        <v>0.0007368642971521721</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N18">
+        <v>183.180478</v>
+      </c>
+      <c r="O18">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P18">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q18">
+        <v>66.765437440962</v>
+      </c>
+      <c r="R18">
+        <v>600.8889369686581</v>
+      </c>
+      <c r="S18">
+        <v>0.0005404020922179848</v>
+      </c>
+      <c r="T18">
+        <v>0.0005938038349193038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.093437</v>
+      </c>
+      <c r="H19">
+        <v>3.280311</v>
+      </c>
+      <c r="I19">
+        <v>0.000726850800412406</v>
+      </c>
+      <c r="J19">
+        <v>0.0007368642971521721</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.132278</v>
+      </c>
+      <c r="N19">
+        <v>0.396834</v>
+      </c>
+      <c r="O19">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P19">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q19">
+        <v>0.144637659486</v>
+      </c>
+      <c r="R19">
+        <v>1.301738935374</v>
+      </c>
+      <c r="S19">
+        <v>1.170702938460679E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.286390086974044E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.093437</v>
+      </c>
+      <c r="H20">
+        <v>3.280311</v>
+      </c>
+      <c r="I20">
+        <v>0.000726850800412406</v>
+      </c>
+      <c r="J20">
+        <v>0.0007368642971521721</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.655122</v>
+      </c>
+      <c r="N20">
+        <v>1.965366</v>
+      </c>
+      <c r="O20">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P20">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q20">
+        <v>0.716334634314</v>
+      </c>
+      <c r="R20">
+        <v>6.447011708826</v>
+      </c>
+      <c r="S20">
+        <v>5.79804087187769E-06</v>
+      </c>
+      <c r="T20">
+        <v>6.370994772816417E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.093437</v>
+      </c>
+      <c r="H21">
+        <v>3.280311</v>
+      </c>
+      <c r="I21">
+        <v>0.000726850800412406</v>
+      </c>
+      <c r="J21">
+        <v>0.0007368642971521721</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.068426</v>
+      </c>
+      <c r="N21">
+        <v>38.136852</v>
+      </c>
+      <c r="O21">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P21">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q21">
+        <v>20.850122520162</v>
+      </c>
+      <c r="R21">
+        <v>125.100735120972</v>
+      </c>
+      <c r="S21">
+        <v>0.0001687617166121351</v>
+      </c>
+      <c r="T21">
+        <v>0.0001236256680657309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>61.32929799999999</v>
+      </c>
+      <c r="H22">
+        <v>122.658596</v>
+      </c>
+      <c r="I22">
+        <v>0.04076800889308754</v>
+      </c>
+      <c r="J22">
+        <v>0.02755310095024899</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.633172</v>
+      </c>
+      <c r="O22">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P22">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q22">
+        <v>74.27329609108533</v>
+      </c>
+      <c r="R22">
+        <v>445.6397765465119</v>
+      </c>
+      <c r="S22">
+        <v>0.0006011709971800952</v>
+      </c>
+      <c r="T22">
+        <v>0.0004403852226683664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>61.32929799999999</v>
+      </c>
+      <c r="H23">
+        <v>122.658596</v>
+      </c>
+      <c r="I23">
+        <v>0.04076800889308754</v>
+      </c>
+      <c r="J23">
+        <v>0.02755310095024899</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N23">
+        <v>183.180478</v>
+      </c>
+      <c r="O23">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P23">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q23">
+        <v>3744.776707681481</v>
+      </c>
+      <c r="R23">
+        <v>22468.66024608889</v>
+      </c>
+      <c r="S23">
+        <v>0.03031037083385716</v>
+      </c>
+      <c r="T23">
+        <v>0.0222037315030854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>61.32929799999999</v>
+      </c>
+      <c r="H24">
+        <v>122.658596</v>
+      </c>
+      <c r="I24">
+        <v>0.04076800889308754</v>
+      </c>
+      <c r="J24">
+        <v>0.02755310095024899</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.132278</v>
+      </c>
+      <c r="N24">
+        <v>0.396834</v>
+      </c>
+      <c r="O24">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P24">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q24">
+        <v>8.112516880844</v>
+      </c>
+      <c r="R24">
+        <v>48.675101285064</v>
+      </c>
+      <c r="S24">
+        <v>6.566303260483287E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.810117149762756E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>58.0382766233033</v>
-      </c>
-      <c r="H17">
-        <v>58.0382766233033</v>
-      </c>
-      <c r="I17">
-        <v>0.04130765455473241</v>
-      </c>
-      <c r="J17">
-        <v>0.04130765455473241</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>17.918771390257</v>
-      </c>
-      <c r="N17">
-        <v>17.918771390257</v>
-      </c>
-      <c r="O17">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="P17">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="Q17">
-        <v>1039.974610697469</v>
-      </c>
-      <c r="R17">
-        <v>1039.974610697469</v>
-      </c>
-      <c r="S17">
-        <v>0.009735964492526738</v>
-      </c>
-      <c r="T17">
-        <v>0.009735964492526738</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>61.32929799999999</v>
+      </c>
+      <c r="H25">
+        <v>122.658596</v>
+      </c>
+      <c r="I25">
+        <v>0.04076800889308754</v>
+      </c>
+      <c r="J25">
+        <v>0.02755310095024899</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.655122</v>
+      </c>
+      <c r="N25">
+        <v>1.965366</v>
+      </c>
+      <c r="O25">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P25">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q25">
+        <v>40.17817236435599</v>
+      </c>
+      <c r="R25">
+        <v>241.069034186136</v>
+      </c>
+      <c r="S25">
+        <v>0.000325203716764264</v>
+      </c>
+      <c r="T25">
+        <v>0.000238226580942173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>61.32929799999999</v>
+      </c>
+      <c r="H26">
+        <v>122.658596</v>
+      </c>
+      <c r="I26">
+        <v>0.04076800889308754</v>
+      </c>
+      <c r="J26">
+        <v>0.02755310095024899</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.068426</v>
+      </c>
+      <c r="N26">
+        <v>38.136852</v>
+      </c>
+      <c r="O26">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P26">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q26">
+        <v>1169.453180544948</v>
+      </c>
+      <c r="R26">
+        <v>4677.812722179791</v>
+      </c>
+      <c r="S26">
+        <v>0.009465600312681193</v>
+      </c>
+      <c r="T26">
+        <v>0.004622656472055419</v>
       </c>
     </row>
   </sheetData>
